--- a/individual_case_outputs/avey/261.xlsx
+++ b/individual_case_outputs/avey/261.xlsx
@@ -612,7 +612,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>sexually transmitted infection</t>
+          <t>chlamydia</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -716,11 +716,7 @@
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>urethritis</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr">
         <is>
           <t>chlamydia</t>
@@ -817,11 +813,7 @@
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>urinary tract infection</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
           <t>epididymitis</t>
@@ -867,11 +859,7 @@
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>chlamydia</t>
-        </is>
-      </c>
+      <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr">
         <is>
           <t>chlamydia</t>
